--- a/src/test/ficherosResultado/prueba_glpi_junio2021_faltanDias_ejemplo2.xlsx
+++ b/src/test/ficherosResultado/prueba_glpi_junio2021_faltanDias_ejemplo2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>Imputaciones</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Gefenew modificación TITULO Requerimiento JE</t>
   </si>
   <si>
-    <t>Taraea con Imputacion de CERO horas.</t>
-  </si>
-  <si>
     <t>Gefenew campo FIN PLAZO alegaciones- requerimiento</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
   </si>
   <si>
     <t>Agrupacion</t>
-  </si>
-  <si>
-    <t>Menos de 8 horas imputadas.</t>
   </si>
   <si>
     <t>Resumen</t>
@@ -752,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="n" s="10">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="4">
@@ -768,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="O6" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -847,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="30" t="n">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="K8" s="31" t="n">
         <v>44348.0</v>
@@ -859,10 +853,10 @@
         <v>44348.0</v>
       </c>
       <c r="P8" t="n" s="103">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -941,13 +935,13 @@
         <v>24</v>
       </c>
       <c r="J10" s="42" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="K10" s="43" t="n">
         <v>44348.0</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O10" s="106" t="n">
         <v>44350.0</v>
@@ -970,7 +964,7 @@
         <v>839360.0</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="45" t="n">
         <v>950172.0</v>
@@ -1017,7 +1011,7 @@
         <v>842489.0</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="51" t="n">
         <v>950425.0</v>
@@ -1064,13 +1058,13 @@
         <v>823415.0</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="57" t="n">
         <v>953882.0</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="58" t="n">
         <v>44349.646527777775</v>
@@ -1111,7 +1105,7 @@
         <v>843943.0</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="63" t="n">
         <v>952070.0</v>
@@ -1149,13 +1143,13 @@
         <v>823415.0</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="69" t="n">
         <v>953881.0</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="70" t="n">
         <v>44350.645833333336</v>
@@ -1176,7 +1170,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1190,7 +1184,7 @@
         <v>843943.0</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="75" t="n">
         <v>952072.0</v>
@@ -1217,13 +1211,13 @@
         <v>25</v>
       </c>
       <c r="O16" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="130" t="s">
         <v>37</v>
-      </c>
-      <c r="P16" s="128" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="130" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -1237,13 +1231,13 @@
         <v>823415.0</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="81" t="n">
         <v>953879.0</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="82" t="n">
         <v>44351.645833333336</v>
@@ -1264,7 +1258,7 @@
         <v>25</v>
       </c>
       <c r="O17" s="116" t="n">
-        <v>44362.0</v>
+        <v>44357.0</v>
       </c>
       <c r="P17" s="129" t="n">
         <v>44356.0</v>
@@ -1284,13 +1278,13 @@
         <v>823415.0</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="87" t="n">
         <v>953878.0</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="88" t="n">
         <v>44354.64513888889</v>
@@ -1311,7 +1305,7 @@
         <v>25</v>
       </c>
       <c r="O18" s="117" t="n">
-        <v>44361.0</v>
+        <v>44358.0</v>
       </c>
       <c r="Q18" s="132" t="n">
         <v>44376.0</v>
@@ -1328,13 +1322,13 @@
         <v>823415.0</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="93" t="n">
         <v>953877.0</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="94" t="n">
         <v>44355.64565972222</v>
@@ -1355,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="O19" s="118" t="n">
-        <v>44358.0</v>
+        <v>44361.0</v>
       </c>
       <c r="Q19" s="133" t="n">
         <v>44377.0</v>
@@ -1363,47 +1357,47 @@
     </row>
     <row r="20">
       <c r="O20" s="119" t="n">
-        <v>44357.0</v>
+        <v>44362.0</v>
       </c>
     </row>
     <row r="21">
       <c r="O21" s="120" t="n">
-        <v>44372.0</v>
+        <v>44363.0</v>
       </c>
     </row>
     <row r="22">
       <c r="O22" s="121" t="n">
-        <v>44371.0</v>
+        <v>44364.0</v>
       </c>
     </row>
     <row r="23">
       <c r="O23" s="122" t="n">
-        <v>44370.0</v>
+        <v>44365.0</v>
       </c>
     </row>
     <row r="24">
       <c r="O24" s="123" t="n">
-        <v>44369.0</v>
+        <v>44368.0</v>
       </c>
     </row>
     <row r="25">
       <c r="O25" s="124" t="n">
-        <v>44368.0</v>
+        <v>44369.0</v>
       </c>
     </row>
     <row r="26">
       <c r="O26" s="125" t="n">
-        <v>44365.0</v>
+        <v>44370.0</v>
       </c>
     </row>
     <row r="27">
       <c r="O27" s="126" t="n">
-        <v>44364.0</v>
+        <v>44371.0</v>
       </c>
     </row>
     <row r="28">
       <c r="O28" s="127" t="n">
-        <v>44363.0</v>
+        <v>44372.0</v>
       </c>
     </row>
   </sheetData>
